--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>461.69763937262</v>
+        <v>1.557658822724</v>
       </c>
       <c r="R2">
-        <v>4155.278754353581</v>
+        <v>14.018929404516</v>
       </c>
       <c r="S2">
-        <v>0.1959814512903786</v>
+        <v>0.001425007421152808</v>
       </c>
       <c r="T2">
-        <v>0.1959814512903785</v>
+        <v>0.001425007421152808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>6.790625220184999</v>
+        <v>85.73074124918799</v>
       </c>
       <c r="R3">
-        <v>61.115626981665</v>
+        <v>771.5766712426918</v>
       </c>
       <c r="S3">
-        <v>0.002882485142504337</v>
+        <v>0.07842984658693174</v>
       </c>
       <c r="T3">
-        <v>0.002882485142504336</v>
+        <v>0.07842984658693174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.5447616666667</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>397.634285</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.2156050961899926</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.2156050961899926</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>500.5651891097044</v>
+        <v>6.884088951554999</v>
       </c>
       <c r="R4">
-        <v>4505.08670198734</v>
+        <v>61.956800563995</v>
       </c>
       <c r="S4">
-        <v>0.2124799519453215</v>
+        <v>0.006297834738088938</v>
       </c>
       <c r="T4">
-        <v>0.2124799519453215</v>
+        <v>0.006297834738088938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>397.634285</v>
       </c>
       <c r="I5">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J5">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>7.362287149949443</v>
+        <v>9.094868092868889</v>
       </c>
       <c r="R5">
-        <v>66.26058434954498</v>
+        <v>81.85381283581999</v>
       </c>
       <c r="S5">
-        <v>0.003125144244671143</v>
+        <v>0.008320342258312664</v>
       </c>
       <c r="T5">
-        <v>0.003125144244671143</v>
+        <v>0.008320342258312666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.86989333333333</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>119.60968</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.06485471080959287</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.06485471080959287</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>150.5716291253689</v>
+        <v>500.5651891097044</v>
       </c>
       <c r="R6">
-        <v>1355.14466212832</v>
+        <v>4505.086701987339</v>
       </c>
       <c r="S6">
-        <v>0.06391465730525545</v>
+        <v>0.457936679615545</v>
       </c>
       <c r="T6">
-        <v>0.06391465730525545</v>
+        <v>0.4579366796155451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.86989333333333</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>119.60968</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.06485471080959287</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.06485471080959287</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05554566666666666</v>
+        <v>0.303255</v>
       </c>
       <c r="N7">
-        <v>0.166637</v>
+        <v>0.909765</v>
       </c>
       <c r="O7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q7">
-        <v>2.214599805128889</v>
+        <v>40.19486169922499</v>
       </c>
       <c r="R7">
-        <v>19.93139824616</v>
+        <v>361.753755293025</v>
       </c>
       <c r="S7">
-        <v>0.0009400535043374269</v>
+        <v>0.03677183692475088</v>
       </c>
       <c r="T7">
-        <v>0.0009400535043374269</v>
+        <v>0.0367718369247509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>320.0894206666666</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H8">
-        <v>960.2682619999999</v>
+        <v>125.836033</v>
       </c>
       <c r="I8">
-        <v>0.5206762565675317</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J8">
-        <v>0.5206762565675317</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N8">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q8">
-        <v>1208.841597157743</v>
+        <v>2.878177673901778</v>
       </c>
       <c r="R8">
-        <v>10879.57437441969</v>
+        <v>25.903599065116</v>
       </c>
       <c r="S8">
-        <v>0.5131291788995945</v>
+        <v>0.002633069889806727</v>
       </c>
       <c r="T8">
-        <v>0.5131291788995945</v>
+        <v>0.002633069889806727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>41.94534433333333</v>
+      </c>
+      <c r="H9">
+        <v>125.836033</v>
+      </c>
+      <c r="I9">
+        <v>0.159189381961201</v>
+      </c>
+      <c r="J9">
+        <v>0.159189381961201</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>158.4097247938769</v>
+      </c>
+      <c r="R9">
+        <v>1425.687523144892</v>
+      </c>
+      <c r="S9">
+        <v>0.1449194330111956</v>
+      </c>
+      <c r="T9">
+        <v>0.1449194330111956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>320.0894206666666</v>
-      </c>
-      <c r="H9">
-        <v>960.2682619999999</v>
-      </c>
-      <c r="I9">
-        <v>0.5206762565675317</v>
-      </c>
-      <c r="J9">
-        <v>0.5206762565675317</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.94534433333333</v>
+      </c>
+      <c r="H10">
+        <v>125.836033</v>
+      </c>
+      <c r="I10">
+        <v>0.159189381961201</v>
+      </c>
+      <c r="J10">
+        <v>0.159189381961201</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>12.720135395805</v>
+      </c>
+      <c r="R10">
+        <v>114.481218562245</v>
+      </c>
+      <c r="S10">
+        <v>0.01163687906019867</v>
+      </c>
+      <c r="T10">
+        <v>0.01163687906019868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>66.302588</v>
+      </c>
+      <c r="H11">
+        <v>198.907764</v>
+      </c>
+      <c r="I11">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="J11">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.166637</v>
-      </c>
-      <c r="O9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q9">
-        <v>17.77958026387711</v>
-      </c>
-      <c r="R9">
-        <v>160.016222374894</v>
-      </c>
-      <c r="S9">
-        <v>0.007547077667937164</v>
-      </c>
-      <c r="T9">
-        <v>0.007547077667937164</v>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>4.549506781658667</v>
+      </c>
+      <c r="R11">
+        <v>40.945561034928</v>
+      </c>
+      <c r="S11">
+        <v>0.004162067348683685</v>
+      </c>
+      <c r="T11">
+        <v>0.004162067348683685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>66.302588</v>
+      </c>
+      <c r="H12">
+        <v>198.907764</v>
+      </c>
+      <c r="I12">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="J12">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>250.3966741752373</v>
+      </c>
+      <c r="R12">
+        <v>2253.570067577135</v>
+      </c>
+      <c r="S12">
+        <v>0.2290727043215412</v>
+      </c>
+      <c r="T12">
+        <v>0.2290727043215412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>66.302588</v>
+      </c>
+      <c r="H13">
+        <v>198.907764</v>
+      </c>
+      <c r="I13">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="J13">
+        <v>0.2516290704940168</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>20.10659132394</v>
+      </c>
+      <c r="R13">
+        <v>180.95932191546</v>
+      </c>
+      <c r="S13">
+        <v>0.01839429882379191</v>
+      </c>
+      <c r="T13">
+        <v>0.01839429882379191</v>
       </c>
     </row>
   </sheetData>
